--- a/Case_Files/case_ieee123_modified.xlsx
+++ b/Case_Files/case_ieee123_modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04eb5faba5b81b25/Υπολογιστής/Διπλωματική/Διπλωματική Κώδικας/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malexandrakis/Documents/Diploma_Thesis/Linear_Approximation_OPF/Case_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{96CD15FB-EAC3-446F-B6C1-7B3217B8D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{769780E0-C368-4CA4-919B-3DA66E3F4A23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467817F9-5792-CA4D-9625-9A2D41EED0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="22360" windowWidth="29400" windowHeight="18360" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t>bus</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>FlowMax</t>
-  </si>
-  <si>
-    <t>pu</t>
   </si>
   <si>
     <t>X_pu</t>
@@ -129,12 +126,6 @@
     <t>R_pu</t>
   </si>
   <si>
-    <t>netq</t>
-  </si>
-  <si>
-    <t>netp</t>
-  </si>
-  <si>
     <t>Sbase =1MVA</t>
   </si>
   <si>
@@ -153,15 +144,6 @@
     <t>Sbase = 1MVA</t>
   </si>
   <si>
-    <t>For Q</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>MVaR</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000000000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,12 +232,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -271,10 +249,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,17 +516,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -571,7 +545,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -584,7 +558,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:B57" si="0">A3+1</f>
         <v>3</v>
@@ -597,7 +571,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -610,7 +584,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -623,7 +597,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -636,7 +610,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -649,7 +623,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -662,7 +636,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -675,7 +649,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -688,7 +662,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -701,7 +675,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -714,7 +688,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -727,7 +701,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -740,7 +714,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -753,7 +727,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -766,7 +740,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -779,7 +753,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -792,7 +766,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -805,7 +779,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -818,7 +792,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -831,7 +805,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -844,7 +818,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -857,7 +831,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -870,7 +844,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -884,7 +858,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -898,7 +872,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -912,7 +886,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -926,7 +900,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -940,7 +914,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -954,7 +928,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -967,7 +941,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -980,7 +954,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -993,7 +967,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1006,7 +980,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1019,7 +993,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1032,7 +1006,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1045,7 +1019,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1058,7 +1032,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1071,7 +1045,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1084,7 +1058,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1097,7 +1071,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1110,7 +1084,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1123,7 +1097,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1136,7 +1110,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1149,7 +1123,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1162,7 +1136,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1175,7 +1149,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1188,7 +1162,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1201,7 +1175,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1214,7 +1188,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1227,7 +1201,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1240,7 +1214,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1253,7 +1227,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1266,7 +1240,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1279,7 +1253,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1299,43 +1273,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490BA0CF-A96E-44EC-948F-7FB853C8C3F4}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G39" sqref="G39:G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1346,21 +1320,17 @@
         <v>0.08</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F15" si="0">(B2-C2)/C2</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <f>SUM(C2:C100)</f>
         <v>1.9200000000000006</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1372,31 +1342,19 @@
         <v>0.01</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(B:B)</f>
         <v>3.4900000000000015</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="5">
-        <f>(G2-G3)/G2</f>
-        <v>-0.81770833333333359</v>
-      </c>
-      <c r="L3">
-        <f>G2/G3</f>
-        <v>0.5501432664756446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A57" si="1">A3+1</f>
+        <f t="shared" ref="A4:A57" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -1406,23 +1364,12 @@
         <v>0.06</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4">
-        <f>(G3-G2)/G2</f>
-        <v>0.81770833333333359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -1432,20 +1379,12 @@
         <v>0.05</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f>SUM(B2:B57)</f>
-        <v>3.4900000000000015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -1455,19 +1394,12 @@
         <v>0.02</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -1477,20 +1409,12 @@
         <v>0.02</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f>SUM(C2:C57)</f>
-        <v>1.9200000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -1500,15 +1424,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -1518,16 +1439,12 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -1537,19 +1454,12 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11">
@@ -1559,19 +1469,12 @@
         <v>0.02</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12">
@@ -1581,16 +1484,12 @@
         <v>0.01</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13">
@@ -1600,16 +1499,12 @@
         <v>0.02</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14">
@@ -1619,16 +1514,12 @@
         <v>0.02</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15">
@@ -1638,16 +1529,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.1428571428571426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16">
@@ -1657,20 +1544,12 @@
         <v>0.1</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <f>(B16-C16)/C16</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="H16">
-        <f>(B2-C2)/C2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17">
@@ -1680,20 +1559,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F42" si="2">(B17-C17)/C17</f>
-        <v>1.1428571428571426</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H34" si="3">(B3-C3)/C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18">
@@ -1703,20 +1574,12 @@
         <v>0.06</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19">
@@ -1726,20 +1589,12 @@
         <v>0.06</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20">
@@ -1749,20 +1604,12 @@
         <v>0.18</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>0.36111111111111116</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21">
@@ -1772,20 +1619,12 @@
         <v>0.02</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22">
@@ -1795,18 +1634,12 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23">
@@ -1816,20 +1649,12 @@
         <v>0.02</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24">
@@ -1839,20 +1664,12 @@
         <v>0.02</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25">
@@ -1862,20 +1679,12 @@
         <v>0.03</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26">
@@ -1885,20 +1694,12 @@
         <v>0.02</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27">
@@ -1908,20 +1709,12 @@
         <v>0.01</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
@@ -1931,20 +1724,12 @@
         <v>0.01</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
@@ -1954,20 +1739,12 @@
         <v>0.04</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>1.1428571428571426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30">
@@ -1977,20 +1754,12 @@
         <v>0.02</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>0.40000000000000008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31">
@@ -2000,20 +1769,12 @@
         <v>0.02</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>1.1428571428571426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
@@ -2023,20 +1784,12 @@
         <v>0.02</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33">
@@ -2046,20 +1799,12 @@
         <v>0.02</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34">
@@ -2069,19 +1814,12 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
-        <v>0.36111111111111116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35">
@@ -2091,16 +1829,12 @@
         <v>0.02</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
@@ -2110,16 +1844,12 @@
         <v>0.02</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
@@ -2129,16 +1859,12 @@
         <v>0.02</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38">
@@ -2148,16 +1874,12 @@
         <v>0.05</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39">
@@ -2167,16 +1889,12 @@
         <v>0.04</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40">
@@ -2186,16 +1904,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41">
@@ -2205,16 +1919,12 @@
         <v>0.04</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42">
@@ -2224,16 +1934,12 @@
         <v>0.02</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43">
@@ -2243,20 +1949,12 @@
         <v>0.02</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43">
-        <f>(B43-C43)/C43</f>
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <f>(B52-C52)/C52</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44">
@@ -2266,16 +1964,12 @@
         <v>0.04</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44:F56" si="4">(B44-C44)/C44</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45">
@@ -2285,16 +1979,12 @@
         <v>0.02</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46">
@@ -2304,16 +1994,12 @@
         <v>0.02</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47">
@@ -2323,16 +2009,12 @@
         <v>0.02</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48">
@@ -2342,16 +2024,12 @@
         <v>0.06</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49">
@@ -2361,16 +2039,12 @@
         <v>0.01</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50">
@@ -2380,16 +2054,12 @@
         <v>0.03</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51">
@@ -2399,16 +2069,12 @@
         <v>0.02</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52">
@@ -2418,16 +2084,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53">
@@ -2437,16 +2099,12 @@
         <v>0.15</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54">
@@ -2456,16 +2114,12 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="4"/>
-        <v>0.47368421052631593</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55">
@@ -2475,16 +2129,12 @@
         <v>0.02</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56">
@@ -2494,16 +2144,12 @@
         <v>0.01</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57">
@@ -2513,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2524,29 +2170,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C29233-533B-4F83-B9B8-E8CD7CACCB42}">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F56"/>
+    <sheetView zoomScale="98" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:Q101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2555,19 +2201,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2587,36 +2230,8 @@
         <v>2</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2">
-        <f>(D2-E2)/E2</f>
-        <v>-0.51190457759250751</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2">
-        <f>SUM(D2:D56)</f>
-        <v>6.9516817899999986E-2</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2" s="2">
-        <f>K2/100</f>
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <f>D2/E2</f>
-        <v>0.48809542240749249</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2638,38 +2253,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3">
-        <f t="shared" ref="H3:H56" si="0">(D3-E3)/E3</f>
-        <v>-0.51190458380852655</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <f>SUM(E2:E56)</f>
-        <v>0.11580947320000003</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L56" si="1">K3/100</f>
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N56" si="2">D3/E3</f>
-        <v>0.48809541619147345</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:B56" si="3">A3+1</f>
+        <f t="shared" ref="A4:B56" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -2677,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4" si="4">C3+1</f>
+        <f t="shared" ref="C4" si="1">C3+1</f>
         <v>3</v>
       </c>
       <c r="D4">
@@ -2689,39 +2276,18 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>-0.51190452338301229</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
-        <v>0.48809547661698777</v>
-      </c>
-      <c r="O4">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
       <c r="C5">
-        <f t="shared" ref="C5" si="5">C4+1</f>
+        <f t="shared" ref="C5" si="2">C4+1</f>
         <v>4</v>
       </c>
       <c r="D5">
@@ -2734,43 +2300,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>-0.51190458380852655</v>
-      </c>
-      <c r="J5">
-        <f>J2/J3</f>
-        <v>0.6002688379382074</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
-        <v>0.48809541619147345</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="C6">
-        <f t="shared" ref="C6" si="6">C5+1</f>
+        <f t="shared" ref="C6" si="3">C5+1</f>
         <v>5</v>
       </c>
       <c r="D6">
@@ -2782,43 +2323,18 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>-0.51190457759250751</v>
-      </c>
-      <c r="J6">
-        <f>(J2-J3)/J3</f>
-        <v>-0.39973116206179266</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0.48809542240749249</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
       <c r="C7">
-        <f t="shared" ref="C7" si="7">C6+1</f>
+        <f t="shared" ref="C7" si="4">C6+1</f>
         <v>6</v>
       </c>
       <c r="D7">
@@ -2830,39 +2346,18 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>-0.51190452338301229</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0.48809547661698777</v>
-      </c>
-      <c r="O7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8" si="8">C7+1</f>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8" si="5">C7+1</f>
         <v>7</v>
       </c>
       <c r="D8">
@@ -2874,39 +2369,18 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>-0.51190451627072375</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>0.48809548372927625</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <f t="shared" si="3"/>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="9">C8+1</f>
+        <f t="shared" ref="C9" si="6">C8+1</f>
         <v>8</v>
       </c>
       <c r="D9">
@@ -2918,39 +2392,18 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>-0.51190460546604355</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0.48809539453395645</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
       <c r="C10">
-        <f t="shared" ref="C10" si="10">C9+1</f>
+        <f t="shared" ref="C10" si="7">C9+1</f>
         <v>9</v>
       </c>
       <c r="D10">
@@ -2962,38 +2415,17 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>-0.51190460546604355</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0.48809539453395645</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
-      <c r="P10">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11" si="11">C10+1</f>
+        <f t="shared" ref="C11" si="8">C10+1</f>
         <v>10</v>
       </c>
       <c r="D11">
@@ -3005,29 +2437,8 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>-0.51190459041692582</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0.48809540958307418</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>A11+1</f>
         <v>11</v>
@@ -3048,39 +2459,18 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>-0.51190457409418644</v>
-      </c>
-      <c r="K12">
-        <v>100</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>0.48809542590581362</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
       <c r="C13">
-        <f t="shared" ref="C13" si="12">C12+1</f>
+        <f t="shared" ref="C13" si="9">C12+1</f>
         <v>12</v>
       </c>
       <c r="D13">
@@ -3092,39 +2482,18 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1.0988556775996019</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
-        <v>2.0988556775996021</v>
-      </c>
-      <c r="O13">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
       <c r="C14">
-        <f t="shared" ref="C14" si="13">C13+1</f>
+        <f t="shared" ref="C14" si="10">C13+1</f>
         <v>13</v>
       </c>
       <c r="D14">
@@ -3136,39 +2505,18 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>1.0988556106327334</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>2.0988556106327336</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15" si="14">C14+1</f>
+        <f t="shared" ref="C15" si="11">C14+1</f>
         <v>14</v>
       </c>
       <c r="D15">
@@ -3180,39 +2528,18 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>1.0988556106327334</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="2"/>
-        <v>2.0988556106327336</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" ref="C16" si="15">C15+1</f>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16" si="12">C15+1</f>
         <v>15</v>
       </c>
       <c r="D16">
@@ -3224,39 +2551,18 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>1.0988556500250088</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="2"/>
-        <v>2.0988556500250088</v>
-      </c>
-      <c r="O16">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
       <c r="C17">
-        <f t="shared" ref="C17" si="16">C16+1</f>
+        <f t="shared" ref="C17" si="13">C16+1</f>
         <v>16</v>
       </c>
       <c r="D17">
@@ -3268,38 +2574,17 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>1.0988555333632735</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
-        <v>2.0988555333632735</v>
-      </c>
-      <c r="O17">
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18" si="17">C17+1</f>
+        <f t="shared" ref="C18" si="14">C17+1</f>
         <v>17</v>
       </c>
       <c r="D18">
@@ -3311,38 +2596,17 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>-0.51190459041692582</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
-        <v>0.48809540958307418</v>
-      </c>
-      <c r="O18">
-        <v>16</v>
-      </c>
-      <c r="P18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19" si="18">C18+1</f>
+        <f t="shared" ref="C19" si="15">C18+1</f>
         <v>18</v>
       </c>
       <c r="D19">
@@ -3354,39 +2618,18 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>-0.51190460546604355</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
-        <v>0.48809539453395645</v>
-      </c>
-      <c r="O19">
-        <v>16</v>
-      </c>
-      <c r="P19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20" si="19">C19+1</f>
+        <f t="shared" ref="C20" si="16">C19+1</f>
         <v>19</v>
       </c>
       <c r="D20">
@@ -3398,39 +2641,18 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>-0.51190452338301229</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="2"/>
-        <v>0.48809547661698777</v>
-      </c>
-      <c r="O20">
-        <v>17</v>
-      </c>
-      <c r="P20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21" si="20">C20+1</f>
+        <f t="shared" ref="C21" si="17">C20+1</f>
         <v>20</v>
       </c>
       <c r="D21">
@@ -3442,39 +2664,18 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>-0.51190457759250751</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
-        <v>0.48809542240749249</v>
-      </c>
-      <c r="O21">
-        <v>19</v>
-      </c>
-      <c r="P21">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" ref="C22" si="21">C21+1</f>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22" si="18">C21+1</f>
         <v>21</v>
       </c>
       <c r="D22">
@@ -3486,39 +2687,18 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>-0.51190455894445153</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
-        <v>0.48809544105554847</v>
-      </c>
-      <c r="O22">
-        <v>19</v>
-      </c>
-      <c r="P22">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
       <c r="C23">
-        <f t="shared" ref="C23" si="22">C22+1</f>
+        <f t="shared" ref="C23" si="19">C22+1</f>
         <v>22</v>
       </c>
       <c r="D23">
@@ -3530,38 +2710,17 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>-0.51190453523682589</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>0.48809546476317411</v>
-      </c>
-      <c r="O23">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
         <v>21</v>
       </c>
-      <c r="P23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>21</v>
-      </c>
       <c r="C24">
-        <f t="shared" ref="C24" si="23">C23+1</f>
+        <f t="shared" ref="C24" si="20">C23+1</f>
         <v>23</v>
       </c>
       <c r="D24">
@@ -3573,38 +2732,17 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>-0.51190457090476837</v>
-      </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>0.48809542909523163</v>
-      </c>
-      <c r="O24">
-        <v>21</v>
-      </c>
-      <c r="P24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="24">C24+1</f>
+        <f t="shared" ref="C25" si="21">C24+1</f>
         <v>24</v>
       </c>
       <c r="D25">
@@ -3616,39 +2754,18 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>-0.51190457090476837</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>0.48809542909523163</v>
-      </c>
-      <c r="O25">
-        <v>22</v>
-      </c>
-      <c r="P25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26" si="25">C25+1</f>
+        <f t="shared" ref="C26" si="22">C25+1</f>
         <v>25</v>
       </c>
       <c r="D26">
@@ -3660,39 +2777,18 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O26">
-        <v>24</v>
-      </c>
-      <c r="P26">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="26">C26+1</f>
+        <f t="shared" ref="C27" si="23">C26+1</f>
         <v>26</v>
       </c>
       <c r="D27">
@@ -3704,38 +2800,17 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K27">
-        <v>100</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O27">
-        <v>24</v>
-      </c>
-      <c r="P27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
         <v>19</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28" si="27">C27+1</f>
+        <f t="shared" ref="C28" si="24">C27+1</f>
         <v>27</v>
       </c>
       <c r="D28">
@@ -3747,38 +2822,17 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>-0.51190458025651564</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="2"/>
-        <v>0.48809541974348436</v>
-      </c>
-      <c r="O28">
-        <v>25</v>
-      </c>
-      <c r="P28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29" si="28">C28+1</f>
+        <f t="shared" ref="C29" si="25">C28+1</f>
         <v>28</v>
       </c>
       <c r="D29">
@@ -3790,39 +2844,18 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>-0.51190456761795966</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="2"/>
-        <v>0.48809543238204034</v>
-      </c>
-      <c r="O29">
-        <v>27</v>
-      </c>
-      <c r="P29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30" si="29">C29+1</f>
+        <f t="shared" ref="C30" si="26">C29+1</f>
         <v>29</v>
       </c>
       <c r="D30">
@@ -3834,39 +2867,18 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>-0.51190460546604355</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="2"/>
-        <v>0.48809539453395645</v>
-      </c>
-      <c r="O30">
-        <v>27</v>
-      </c>
-      <c r="P30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31" si="30">C30+1</f>
+        <f t="shared" ref="C31" si="27">C30+1</f>
         <v>30</v>
       </c>
       <c r="D31">
@@ -3878,39 +2890,18 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>-0.51190453523682589</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="2"/>
-        <v>0.48809546476317411</v>
-      </c>
-      <c r="O31">
-        <v>28</v>
-      </c>
-      <c r="P31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32" si="31">C31+1</f>
+        <f t="shared" ref="C32" si="28">C31+1</f>
         <v>31</v>
       </c>
       <c r="D32">
@@ -3922,39 +2913,18 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>-0.51190453523682589</v>
-      </c>
-      <c r="K32">
-        <v>100</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="2"/>
-        <v>0.48809546476317411</v>
-      </c>
-      <c r="O32">
-        <v>30</v>
-      </c>
-      <c r="P32">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
       <c r="C33">
-        <f t="shared" ref="C33" si="32">C32+1</f>
+        <f t="shared" ref="C33" si="29">C32+1</f>
         <v>32</v>
       </c>
       <c r="D33">
@@ -3966,38 +2936,17 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>-0.51190458380852655</v>
-      </c>
-      <c r="K33">
-        <v>100</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="2"/>
-        <v>0.48809541619147345</v>
-      </c>
-      <c r="O33">
-        <v>30</v>
-      </c>
-      <c r="P33">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
       <c r="B34">
         <v>17</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" ref="C34" si="33">C33+1</f>
+      <c r="C34" s="5">
+        <f t="shared" ref="C34" si="30">C33+1</f>
         <v>33</v>
       </c>
       <c r="D34">
@@ -4009,38 +2958,17 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O34">
-        <v>31</v>
-      </c>
-      <c r="P34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>33</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35" si="34">C34+1</f>
+        <f t="shared" ref="C35" si="31">C34+1</f>
         <v>34</v>
       </c>
       <c r="D35">
@@ -4052,39 +2980,18 @@
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>-0.51190460546604355</v>
-      </c>
-      <c r="K35">
-        <v>100</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="2"/>
-        <v>0.48809539453395645</v>
-      </c>
-      <c r="O35">
-        <v>33</v>
-      </c>
-      <c r="P35">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36" si="35">C35+1</f>
+        <f t="shared" ref="C36" si="32">C35+1</f>
         <v>35</v>
       </c>
       <c r="D36">
@@ -4096,39 +3003,18 @@
       <c r="F36">
         <v>2</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>-0.51190456604095813</v>
-      </c>
-      <c r="K36">
-        <v>100</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="2"/>
-        <v>0.48809543395904192</v>
-      </c>
-      <c r="O36">
-        <v>33</v>
-      </c>
-      <c r="P36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37" si="36">C36+1</f>
+        <f t="shared" ref="C37" si="33">C36+1</f>
         <v>36</v>
       </c>
       <c r="D37">
@@ -4140,38 +3026,17 @@
       <c r="F37">
         <v>2</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>-0.51190458380852655</v>
-      </c>
-      <c r="K37">
-        <v>100</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="2"/>
-        <v>0.48809541619147345</v>
-      </c>
-      <c r="O37">
-        <v>34</v>
-      </c>
-      <c r="P37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38">
         <v>33</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38" si="37">C37+1</f>
+        <f t="shared" ref="C38" si="34">C37+1</f>
         <v>37</v>
       </c>
       <c r="D38">
@@ -4183,38 +3048,17 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K38">
-        <v>100</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O38">
-        <v>36</v>
-      </c>
-      <c r="P38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39" si="38">C38+1</f>
+        <f t="shared" ref="C39" si="35">C38+1</f>
         <v>38</v>
       </c>
       <c r="D39">
@@ -4226,39 +3070,18 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>-0.51190460546604355</v>
-      </c>
-      <c r="K39">
-        <v>100</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="2"/>
-        <v>0.48809539453395645</v>
-      </c>
-      <c r="O39">
-        <v>36</v>
-      </c>
-      <c r="P39">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40" si="39">C39+1</f>
+        <f t="shared" ref="C40" si="36">C39+1</f>
         <v>39</v>
       </c>
       <c r="D40">
@@ -4270,38 +3093,17 @@
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>-0.51190458736689537</v>
-      </c>
-      <c r="K40">
-        <v>100</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="2"/>
-        <v>0.48809541263310463</v>
-      </c>
-      <c r="O40">
-        <v>37</v>
-      </c>
-      <c r="P40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41" si="40">C40+1</f>
+        <f t="shared" ref="C41" si="37">C40+1</f>
         <v>40</v>
       </c>
       <c r="D41">
@@ -4313,38 +3115,17 @@
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>-0.51190457918265342</v>
-      </c>
-      <c r="K41">
-        <v>100</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="2"/>
-        <v>0.48809542081734653</v>
-      </c>
-      <c r="O41">
-        <v>39</v>
-      </c>
-      <c r="P41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42" si="41">C41+1</f>
+        <f t="shared" ref="C42" si="38">C41+1</f>
         <v>41</v>
       </c>
       <c r="D42">
@@ -4356,39 +3137,18 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>-0.51190458380852655</v>
-      </c>
-      <c r="K42">
-        <v>100</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="2"/>
-        <v>0.48809541619147345</v>
-      </c>
-      <c r="O42">
-        <v>39</v>
-      </c>
-      <c r="P42">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
       <c r="B43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43" si="42">C42+1</f>
+        <f t="shared" ref="C43" si="39">C42+1</f>
         <v>42</v>
       </c>
       <c r="D43">
@@ -4400,39 +3160,18 @@
       <c r="F43">
         <v>2</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K43">
-        <v>100</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O43">
-        <v>40</v>
-      </c>
-      <c r="P43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44" si="43">C43+1</f>
+        <f t="shared" ref="C44" si="40">C43+1</f>
         <v>43</v>
       </c>
       <c r="D44">
@@ -4444,39 +3183,18 @@
       <c r="F44">
         <v>2</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>-0.51190460546604355</v>
-      </c>
-      <c r="K44">
-        <v>100</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="2"/>
-        <v>0.48809539453395645</v>
-      </c>
-      <c r="O44">
-        <v>42</v>
-      </c>
-      <c r="P44">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
       <c r="C45">
-        <f t="shared" ref="C45" si="44">C44+1</f>
+        <f t="shared" ref="C45" si="41">C44+1</f>
         <v>44</v>
       </c>
       <c r="D45">
@@ -4488,39 +3206,18 @@
       <c r="F45">
         <v>2</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>-0.51190452338301229</v>
-      </c>
-      <c r="K45">
-        <v>100</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="2"/>
-        <v>0.48809547661698777</v>
-      </c>
-      <c r="O45">
-        <v>42</v>
-      </c>
-      <c r="P45">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
       <c r="B46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46" si="45">C45+1</f>
+        <f t="shared" ref="C46" si="42">C45+1</f>
         <v>45</v>
       </c>
       <c r="D46">
@@ -4532,39 +3229,18 @@
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>-0.51190458380852655</v>
-      </c>
-      <c r="K46">
-        <v>100</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="2"/>
-        <v>0.48809541619147345</v>
-      </c>
-      <c r="O46">
-        <v>43</v>
-      </c>
-      <c r="P46">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47" si="46">C46+1</f>
+        <f t="shared" ref="C47" si="43">C46+1</f>
         <v>46</v>
       </c>
       <c r="D47">
@@ -4576,38 +3252,17 @@
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>-0.51190459041692582</v>
-      </c>
-      <c r="K47">
-        <v>100</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="2"/>
-        <v>0.48809540958307418</v>
-      </c>
-      <c r="O47">
-        <v>43</v>
-      </c>
-      <c r="P47">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48">
         <v>40</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48" si="47">C47+1</f>
+        <f t="shared" ref="C48" si="44">C47+1</f>
         <v>47</v>
       </c>
       <c r="D48">
@@ -4619,38 +3274,17 @@
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>-0.51190457409418644</v>
-      </c>
-      <c r="K48">
-        <v>100</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="2"/>
-        <v>0.48809542590581362</v>
-      </c>
-      <c r="O48">
-        <v>45</v>
-      </c>
-      <c r="P48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49" si="48">C48+1</f>
+        <f t="shared" ref="C49" si="45">C48+1</f>
         <v>48</v>
       </c>
       <c r="D49">
@@ -4662,39 +3296,18 @@
       <c r="F49">
         <v>2</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K49">
-        <v>100</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O49">
-        <v>45</v>
-      </c>
-      <c r="P49">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
       <c r="C50">
-        <f t="shared" ref="C50" si="49">C49+1</f>
+        <f t="shared" ref="C50" si="46">C49+1</f>
         <v>49</v>
       </c>
       <c r="D50">
@@ -4706,39 +3319,18 @@
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K50">
-        <v>100</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O50">
-        <v>46</v>
-      </c>
-      <c r="P50">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51" si="50">C50+1</f>
+        <f t="shared" ref="C51" si="47">C50+1</f>
         <v>50</v>
       </c>
       <c r="D51">
@@ -4750,39 +3342,18 @@
       <c r="F51">
         <v>2</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>-0.51190452338301229</v>
-      </c>
-      <c r="K51">
-        <v>100</v>
-      </c>
-      <c r="L51" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="2"/>
-        <v>0.48809547661698777</v>
-      </c>
-      <c r="O51">
-        <v>48</v>
-      </c>
-      <c r="P51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C52" s="7">
-        <f t="shared" ref="C52" si="51">C51+1</f>
+      <c r="C52" s="6">
+        <f t="shared" ref="C52" si="48">C51+1</f>
         <v>51</v>
       </c>
       <c r="D52">
@@ -4794,39 +3365,18 @@
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K52">
-        <v>100</v>
-      </c>
-      <c r="L52" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O52">
-        <v>48</v>
-      </c>
-      <c r="P52">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="7">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
       <c r="C53">
-        <f t="shared" ref="C53" si="52">C52+1</f>
+        <f t="shared" ref="C53" si="49">C52+1</f>
         <v>52</v>
       </c>
       <c r="D53">
@@ -4838,38 +3388,17 @@
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>-0.511904535236826</v>
-      </c>
-      <c r="K53">
-        <v>100</v>
-      </c>
-      <c r="L53" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="2"/>
-        <v>0.48809546476317406</v>
-      </c>
-      <c r="O53">
-        <v>49</v>
-      </c>
-      <c r="P53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54">
         <v>51</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54" si="53">C53+1</f>
+        <f t="shared" ref="C54" si="50">C53+1</f>
         <v>53</v>
       </c>
       <c r="D54">
@@ -4881,38 +3410,17 @@
       <c r="F54">
         <v>2</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K54">
-        <v>100</v>
-      </c>
-      <c r="L54" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O54">
-        <v>51</v>
-      </c>
-      <c r="P54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55" si="54">C54+1</f>
+        <f t="shared" ref="C55" si="51">C54+1</f>
         <v>54</v>
       </c>
       <c r="D55">
@@ -4924,39 +3432,18 @@
       <c r="F55">
         <v>2</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K55">
-        <v>100</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O55">
-        <v>51</v>
-      </c>
-      <c r="P55">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
       <c r="C56">
-        <f t="shared" ref="C56" si="55">C55+1</f>
+        <f t="shared" ref="C56" si="52">C55+1</f>
         <v>55</v>
       </c>
       <c r="D56">
@@ -4967,414 +3454,6 @@
       </c>
       <c r="F56">
         <v>2</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>-0.51190460300591589</v>
-      </c>
-      <c r="K56">
-        <v>100</v>
-      </c>
-      <c r="L56" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="2"/>
-        <v>0.48809539699408405</v>
-      </c>
-      <c r="O56">
-        <v>52</v>
-      </c>
-      <c r="P56">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J57" s="2"/>
-      <c r="O57">
-        <v>54</v>
-      </c>
-      <c r="P57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J58" s="2"/>
-      <c r="O58">
-        <v>54</v>
-      </c>
-      <c r="P58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J59" s="2"/>
-      <c r="O59">
-        <v>55</v>
-      </c>
-      <c r="P59">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J60" s="2"/>
-      <c r="O60">
-        <v>57</v>
-      </c>
-      <c r="P60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J61" s="2"/>
-      <c r="O61">
-        <v>57</v>
-      </c>
-      <c r="P61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J62" s="2"/>
-      <c r="O62">
-        <v>58</v>
-      </c>
-      <c r="P62">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J63" s="2"/>
-      <c r="O63">
-        <v>60</v>
-      </c>
-      <c r="P63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J64" s="2"/>
-      <c r="O64">
-        <v>60</v>
-      </c>
-      <c r="P64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J65" s="2"/>
-      <c r="O65">
-        <v>61</v>
-      </c>
-      <c r="P65">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J66" s="2"/>
-      <c r="O66">
-        <v>63</v>
-      </c>
-      <c r="P66">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J67" s="2"/>
-      <c r="O67">
-        <v>64</v>
-      </c>
-      <c r="P67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J68" s="2"/>
-      <c r="O68">
-        <v>66</v>
-      </c>
-      <c r="P68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J69" s="2"/>
-      <c r="O69">
-        <v>66</v>
-      </c>
-      <c r="P69">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J70" s="2"/>
-      <c r="O70">
-        <v>67</v>
-      </c>
-      <c r="P70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J71" s="2"/>
-      <c r="O71">
-        <v>69</v>
-      </c>
-      <c r="P71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J72" s="2"/>
-      <c r="O72">
-        <v>69</v>
-      </c>
-      <c r="P72">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J73" s="2"/>
-      <c r="O73">
-        <v>70</v>
-      </c>
-      <c r="P73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J74" s="2"/>
-      <c r="O74">
-        <v>72</v>
-      </c>
-      <c r="P74">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J75" s="2"/>
-      <c r="O75">
-        <v>72</v>
-      </c>
-      <c r="P75">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J76" s="2"/>
-      <c r="O76">
-        <v>75</v>
-      </c>
-      <c r="P76">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J77" s="2"/>
-      <c r="O77">
-        <v>75</v>
-      </c>
-      <c r="P77">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J78" s="2"/>
-      <c r="O78">
-        <v>76</v>
-      </c>
-      <c r="P78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J79" s="2"/>
-      <c r="O79">
-        <v>78</v>
-      </c>
-      <c r="P79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J80" s="2"/>
-      <c r="O80">
-        <v>78</v>
-      </c>
-      <c r="P80">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J81" s="2"/>
-      <c r="O81">
-        <v>79</v>
-      </c>
-      <c r="P81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J82" s="2"/>
-      <c r="O82">
-        <v>81</v>
-      </c>
-      <c r="P82">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J83" s="2"/>
-      <c r="O83">
-        <v>81</v>
-      </c>
-      <c r="P83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J84" s="2"/>
-      <c r="O84">
-        <v>82</v>
-      </c>
-      <c r="P84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J85" s="2"/>
-      <c r="O85">
-        <v>84</v>
-      </c>
-      <c r="P85">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J86" s="2"/>
-      <c r="O86">
-        <v>84</v>
-      </c>
-      <c r="P86">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J87" s="2"/>
-      <c r="O87">
-        <v>85</v>
-      </c>
-      <c r="P87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J88" s="2"/>
-      <c r="O88">
-        <v>87</v>
-      </c>
-      <c r="P88">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J89" s="2"/>
-      <c r="O89">
-        <v>87</v>
-      </c>
-      <c r="P89">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J90" s="2"/>
-      <c r="O90">
-        <v>88</v>
-      </c>
-      <c r="P90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J91" s="2"/>
-      <c r="O91">
-        <v>90</v>
-      </c>
-      <c r="P91">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J92" s="2"/>
-      <c r="O92">
-        <v>90</v>
-      </c>
-      <c r="P92">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J93" s="2"/>
-      <c r="O93">
-        <v>92</v>
-      </c>
-      <c r="P93">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J94" s="2"/>
-      <c r="O94">
-        <v>92</v>
-      </c>
-      <c r="P94">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J95" s="2"/>
-      <c r="O95">
-        <v>93</v>
-      </c>
-      <c r="P95">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J96" s="2"/>
-      <c r="O96">
-        <v>93</v>
-      </c>
-      <c r="P96">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J97" s="2"/>
-      <c r="O97">
-        <v>96</v>
-      </c>
-      <c r="P97">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J98" s="2"/>
-      <c r="O98">
-        <v>97</v>
-      </c>
-      <c r="P98">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J99" s="2"/>
-      <c r="O99">
-        <v>1000</v>
-      </c>
-      <c r="P99">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5388,38 +3467,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94C9D68-9822-4BED-8D67-3E37C6AE9610}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56</v>
       </c>
@@ -5439,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
@@ -5459,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>51</v>
       </c>
@@ -5486,18 +3562,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA10FF07-7788-4E30-9174-F781E962CF4A}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J1" sqref="J1:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5508,7 +3584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56</v>
       </c>
@@ -5518,17 +3594,8 @@
       <c r="C2">
         <v>200</v>
       </c>
-      <c r="J2">
-        <v>1000</v>
-      </c>
-      <c r="K2">
-        <v>29</v>
-      </c>
-      <c r="L2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
@@ -5539,7 +3606,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>51</v>
       </c>
@@ -5548,24 +3615,6 @@
       </c>
       <c r="C4">
         <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>-1.3304499999999999E-3</v>
-      </c>
-      <c r="E13">
-        <v>1.9726500000000001E-2</v>
-      </c>
-      <c r="F13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G13">
-        <v>1E-3</v>
-      </c>
-      <c r="H13">
-        <f>SUM(D13:G13)</f>
-        <v>1.959605E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5581,26 +3630,26 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56</v>
       </c>
@@ -5617,7 +3666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
@@ -5634,7 +3683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>51</v>
       </c>
@@ -5664,9 +3713,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5677,7 +3726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -5704,32 +3753,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Case_Files/case_ieee123_modified.xlsx
+++ b/Case_Files/case_ieee123_modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malexandrakis/Documents/Diploma_Thesis/Linear_Approximation_OPF/Case_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467817F9-5792-CA4D-9625-9A2D41EED0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDEBC3-0C24-E54D-876C-9631F7D04AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="22360" windowWidth="29400" windowHeight="18360" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>bus</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -2170,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C29233-533B-4F83-B9B8-E8CD7CACCB42}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q101"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2190,7 +2193,7 @@
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2231,7 +2234,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2254,7 +2257,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:B56" si="0">A3+1</f>
         <v>3</v>
@@ -2277,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2324,7 +2327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2347,7 +2350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2370,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2393,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2416,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2437,8 +2440,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>A11+1</f>
         <v>11</v>
@@ -2460,7 +2466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2483,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2506,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2529,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3462,6 +3468,7 @@
     <sortCondition ref="O2:O99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Case_Files/case_ieee123_modified.xlsx
+++ b/Case_Files/case_ieee123_modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malexandrakis/Documents/Diploma_Thesis/Linear_Approximation_OPF/Case_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04eb5faba5b81b25/Diploma_Thesis/Linear_Approximation_OPF/Case_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDEBC3-0C24-E54D-876C-9631F7D04AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D8BDEBC3-0C24-E54D-876C-9631F7D04AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AAA42E9-E205-C54E-A8CD-2C00DD2974A7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" tabRatio="815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -2175,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C29233-533B-4F83-B9B8-E8CD7CACCB42}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -3633,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9394446-326E-4DF6-9B75-9BC3E02959AA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
